--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_05-03_end.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_05-03_end.xlsx
@@ -1084,7 +1084,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch'en"]  And it says, "I don't mind."
+    <t xml:space="preserve">[name="Ch'en"]  And it says, 'I don't mind.'
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_05-03_end.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_05-03_end.xlsx
@@ -960,7 +960,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Informant"]  It's true. Do you see how many times I’ve been shot? I'm blind, and don't want to move anymore. I've had enough of the pain. I'm so tired.
+    <t xml:space="preserve">[name="Informant"]  It's true. Do you see how many times I've been shot? I'm blind, and don't want to move anymore. I've had enough of the pain. I'm so tired.
 </t>
   </si>
   <si>
@@ -1148,7 +1148,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Informant"]  It's okay. As long as I’m… with the others.
+    <t xml:space="preserve">[name="Informant"]  It's okay. As long as I'm... with the others.
 </t>
   </si>
   <si>
